--- a/Testcases/Ebay_Testcases.xlsx
+++ b/Testcases/Ebay_Testcases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosh-mac/projects/ebaytest/Testcases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EED5B8-E199-C245-A0E7-034644720B09}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08651B1E-1C09-DD47-8FE0-39C688EEA711}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="28800" windowHeight="15880" xr2:uid="{65C310DA-EF98-614C-B388-BBC0B2E53FA9}"/>
+    <workbookView xWindow="30480" yWindow="-900" windowWidth="33760" windowHeight="19440" xr2:uid="{65C310DA-EF98-614C-B388-BBC0B2E53FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -623,10 +623,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412C47E9-5D3E-434B-B5FD-81AAF8596A6D}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1012,10 +1012,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="21">
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
@@ -1929,17 +1929,17 @@
       <c r="C46" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13">
@@ -1950,17 +1950,17 @@
       <c r="C47" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13">
@@ -1971,17 +1971,17 @@
       <c r="C48" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:13">
@@ -1992,17 +1992,17 @@
       <c r="C49" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:13">
@@ -2013,17 +2013,17 @@
       <c r="C50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:13">
@@ -2034,17 +2034,17 @@
       <c r="C51" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" ht="32">
@@ -2058,14 +2058,14 @@
       <c r="D52" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13">
@@ -2076,121 +2076,121 @@
       <c r="C53" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="15"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="3"/>
       <c r="C54" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="15"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="15"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="15"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="15"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="15"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Testcases/Ebay_Testcases.xlsx
+++ b/Testcases/Ebay_Testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosh-mac/projects/ebaytest/Testcases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08651B1E-1C09-DD47-8FE0-39C688EEA711}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA3652-070C-9443-9931-AFA62B5AEB83}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="-900" windowWidth="33760" windowHeight="19440" xr2:uid="{65C310DA-EF98-614C-B388-BBC0B2E53FA9}"/>
+    <workbookView xWindow="27240" yWindow="-900" windowWidth="38120" windowHeight="19480" xr2:uid="{65C310DA-EF98-614C-B388-BBC0B2E53FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="166">
   <si>
     <t>Project Name</t>
   </si>
@@ -81,12 +81,6 @@
     <t>Enter a valid username &amp; password</t>
   </si>
   <si>
-    <t>Enter a valid username &amp; Invalid password</t>
-  </si>
-  <si>
-    <t>Enter a Invalid username &amp; password</t>
-  </si>
-  <si>
     <t>Enter a Invalid username &amp; Invalid password</t>
   </si>
   <si>
@@ -102,15 +96,6 @@
     <t>Valid Username: nexttriptester1@gmail.com                   Valid PW: Babi1234</t>
   </si>
   <si>
-    <t>Valid Username: nexttriptester1@gmail.com                   Valid PW: xxxxxx</t>
-  </si>
-  <si>
-    <t>Valid Username: xxxxxxx                   Valid PW: xxxxxxx</t>
-  </si>
-  <si>
-    <t>Valid Username: xxxxxx                   Valid PW: Babi1236</t>
-  </si>
-  <si>
     <t>Load Ebay Home page</t>
   </si>
   <si>
@@ -127,9 +112,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. Enter valid username 2.Enter Invalid password                      3. Click on Sign in button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter Invalid username 2.Enter valid password          3. Click on Sign in button </t>
   </si>
   <si>
     <t xml:space="preserve">1. Enter Invalid username 2.Enter Invalid password       3. Click on Sign in button </t>
@@ -272,9 +254,6 @@
     <t>TC_Login_005</t>
   </si>
   <si>
-    <t>TC_Login_006</t>
-  </si>
-  <si>
     <t>TC_Cart_001</t>
   </si>
   <si>
@@ -482,31 +461,88 @@
     <t xml:space="preserve">Load Categoeries </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Go to main Navigation menu.                                 2. Scroll down and select categories                            </t>
-  </si>
-  <si>
     <t>View/Display Categories</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Go to main Navigation menu.                                 2. Scroll down and select categories                          3. Display all 35 Categories                           </t>
-  </si>
-  <si>
     <t xml:space="preserve">Load all 35 categories </t>
   </si>
   <si>
     <t>A popup message box to show an error "Oops, that's not a match, Please try again."</t>
   </si>
   <si>
-    <t>1.Go to search Bar              2.Enter valid data at least 2 characters                          3. Click first result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to main Navigation menu.                                 2. Click Home and then click search bar                  3. Click recent button         4. Display recent list                            </t>
-  </si>
-  <si>
     <t>1.Log into eBay Ac                         2. Searched for an Item</t>
   </si>
   <si>
     <t xml:space="preserve">Display all recent items in the recent list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to main Navigation menu.                                      2. Scroll down and select categories                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to main Navigation menu.                                      2. Scroll down and select categories                              3. Display all 35 Categories                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to main Navigation menu.                                 
+2. Click Home and then click search bar                 
+ 3. Click recent button         4. Display recent list                            </t>
+  </si>
+  <si>
+    <t>1.Go to search Bar              2.Enter valid data at least 
+2 characters                          3. Click first result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Categories  </t>
+  </si>
+  <si>
+    <t>1. Go to main Navigation menu.                                      2. Scroll down and select categories  
+3. Click a random categoery
+4. Click a sub categoery 
+5. Click SEE ALL
+6.Click SAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be able to save the selected sub cateogery </t>
+  </si>
+  <si>
+    <t>Valid Username: nexttriptester1@gmail.com                   Valid PW: Babi1235</t>
+  </si>
+  <si>
+    <t>1. Go to main Navigation menu.                                      2. Scroll down and select categories  
+3. Click a random categoery
+4. Click a sub categoery 
+5. Click SEE ALL
+6.Click filter</t>
+  </si>
+  <si>
+    <t>Valid Username: nexttriptester1@gmail.com                   Valid PW: Babi1236</t>
+  </si>
+  <si>
+    <t>Signed In Account
+Select sub Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be able to filter the selected sub cateogery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be able to sort list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to main Navigation menu.                                      2. Scroll down and select categories  
+3. Click a random categoery
+4. Click a sub categoery 
+5. Click SEE ALL
+6.Click Sort
+7. Select one from the list
+8.Click Done </t>
+  </si>
+  <si>
+    <t>Enter a Invalid username or Invalid password</t>
+  </si>
+  <si>
+    <t>InValid Username: xxxxxx                   InValid PW: xxxxxx</t>
+  </si>
+  <si>
+    <t>InValid Username: xxxxxxx                   InValid PW: xxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -941,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412C47E9-5D3E-434B-B5FD-81AAF8596A6D}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -953,7 +989,7 @@
     <col min="2" max="2" width="31.83203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" customWidth="1"/>
@@ -976,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -997,15 +1033,15 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B6" s="11">
         <v>5</v>
@@ -1013,7 +1049,7 @@
     </row>
     <row r="7" spans="1:12" ht="21">
       <c r="E7" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F7" s="15"/>
     </row>
@@ -1031,13 +1067,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
@@ -1060,32 +1096,32 @@
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L9" s="3"/>
     </row>
@@ -1095,29 +1131,29 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L10" s="3"/>
     </row>
@@ -1127,61 +1163,61 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="96">
+    <row r="12" spans="1:12" ht="192">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L12" s="3"/>
     </row>
@@ -1191,168 +1227,184 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="64">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="176">
-      <c r="A14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="64">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
+    <row r="15" spans="1:12" ht="96">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="96">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:12" ht="144">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" ht="144">
+      <c r="A17" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="192">
       <c r="A18" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="64">
       <c r="A19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1360,53 +1412,50 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="64">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="96">
       <c r="A20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>119</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="96">
+    <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>158</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1415,14 +1464,16 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1436,16 +1487,14 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>120</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1458,15 +1507,13 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="A24" s="7"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1482,10 +1529,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1498,13 +1545,15 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1516,13 +1565,11 @@
       <c r="L26" s="3"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="7" t="s">
-        <v>52</v>
-      </c>
+    <row r="27" spans="1:13" ht="32">
+      <c r="A27" s="7"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>124</v>
@@ -1537,14 +1584,16 @@
       <c r="L27" s="3"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" ht="32">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:13">
+      <c r="A28" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1558,14 +1607,14 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1577,16 +1626,18 @@
       <c r="L29" s="3"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" ht="32">
       <c r="A30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1600,16 +1651,14 @@
     </row>
     <row r="31" spans="1:13" ht="32">
       <c r="A31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1623,14 +1672,14 @@
     </row>
     <row r="32" spans="1:13" ht="32">
       <c r="A32" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1642,16 +1691,16 @@
       <c r="L32" s="3"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" ht="32">
+    <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1665,14 +1714,14 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1686,14 +1735,16 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1705,18 +1756,16 @@
       <c r="L35" s="3"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" ht="32">
       <c r="A36" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1730,14 +1779,14 @@
     </row>
     <row r="37" spans="1:13" ht="32">
       <c r="A37" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1751,14 +1800,14 @@
     </row>
     <row r="38" spans="1:13" ht="32">
       <c r="A38" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1770,16 +1819,18 @@
       <c r="L38" s="3"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" ht="32">
+    <row r="39" spans="1:13">
       <c r="A39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1793,16 +1844,14 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1816,14 +1865,14 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1837,14 +1886,14 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1858,14 +1907,14 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1879,58 +1928,58 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B45" s="3"/>
       <c r="C45" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -1944,14 +1993,14 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -1965,14 +2014,14 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -1986,14 +2035,14 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -2007,14 +2056,14 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
@@ -2026,16 +2075,16 @@
       <c r="L50" s="14"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" ht="32">
       <c r="A51" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>109</v>
+        <v>129</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -2047,16 +2096,16 @@
       <c r="L51" s="14"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13" ht="32">
+    <row r="52" spans="1:13">
       <c r="A52" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
@@ -2069,15 +2118,13 @@
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="A53" s="14"/>
       <c r="B53" s="3"/>
       <c r="C53" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
@@ -2092,12 +2139,8 @@
     <row r="54" spans="1:13">
       <c r="A54" s="14"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>138</v>
-      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
@@ -2106,7 +2149,6 @@
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
-      <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14"/>
@@ -2178,20 +2220,6 @@
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="14"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E7:F7"/>

--- a/Testcases/Ebay_Testcases.xlsx
+++ b/Testcases/Ebay_Testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosh-mac/projects/ebaytest/Testcases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA3652-070C-9443-9931-AFA62B5AEB83}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4C99A2-36A2-5946-9428-C1BFEEE05439}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27240" yWindow="-900" windowWidth="38120" windowHeight="19480" xr2:uid="{65C310DA-EF98-614C-B388-BBC0B2E53FA9}"/>
+    <workbookView xWindow="28820" yWindow="-900" windowWidth="38120" windowHeight="19480" xr2:uid="{65C310DA-EF98-614C-B388-BBC0B2E53FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="238">
   <si>
     <t>Project Name</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t xml:space="preserve">Status </t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t>Ebay</t>
@@ -152,12 +149,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>Add item to the cart</t>
-  </si>
-  <si>
-    <t>Edit quantity in the cart</t>
-  </si>
-  <si>
     <t xml:space="preserve">Payment </t>
   </si>
   <si>
@@ -233,9 +224,6 @@
     <t>Display list of items in the cart</t>
   </si>
   <si>
-    <t>View &amp; click the item in cart</t>
-  </si>
-  <si>
     <t>Save item for later</t>
   </si>
   <si>
@@ -296,21 +284,12 @@
     <t>TC_Watch_004</t>
   </si>
   <si>
-    <t>Checkout Process</t>
-  </si>
-  <si>
     <t>TC_Checkout_001</t>
   </si>
   <si>
     <t xml:space="preserve">Edit quantity </t>
   </si>
   <si>
-    <t xml:space="preserve">Remove item </t>
-  </si>
-  <si>
-    <t>Message seller</t>
-  </si>
-  <si>
     <t>TC_Checkout_002</t>
   </si>
   <si>
@@ -377,9 +356,6 @@
     <t>TC_Item_002</t>
   </si>
   <si>
-    <t>Display Item description</t>
-  </si>
-  <si>
     <t>Share the item</t>
   </si>
   <si>
@@ -401,9 +377,6 @@
     <t>TC_Item_006</t>
   </si>
   <si>
-    <t>Display Shipping, Return and Payment info</t>
-  </si>
-  <si>
     <t>TC_Payment_007</t>
   </si>
   <si>
@@ -431,9 +404,6 @@
     <t>Zoom image item</t>
   </si>
   <si>
-    <t>Slide images item</t>
-  </si>
-  <si>
     <t>TC_Item_007</t>
   </si>
   <si>
@@ -446,9 +416,6 @@
     <t>Device Version</t>
   </si>
   <si>
-    <t xml:space="preserve">Galaxy Note 3 : Android </t>
-  </si>
-  <si>
     <t xml:space="preserve">Functional Testing </t>
   </si>
   <si>
@@ -468,9 +435,6 @@
   </si>
   <si>
     <t>A popup message box to show an error "Oops, that's not a match, Please try again."</t>
-  </si>
-  <si>
-    <t>1.Log into eBay Ac                         2. Searched for an Item</t>
   </si>
   <si>
     <t xml:space="preserve">Display all recent items in the recent list </t>
@@ -485,10 +449,6 @@
     <t xml:space="preserve">1. Go to main Navigation menu.                                 
 2. Click Home and then click search bar                 
  3. Click recent button         4. Display recent list                            </t>
-  </si>
-  <si>
-    <t>1.Go to search Bar              2.Enter valid data at least 
-2 characters                          3. Click first result</t>
   </si>
   <si>
     <t xml:space="preserve">Select Categories  </t>
@@ -507,6 +467,10 @@
     <t>Valid Username: nexttriptester1@gmail.com                   Valid PW: Babi1235</t>
   </si>
   <si>
+    <t xml:space="preserve">Signed In Account
+</t>
+  </si>
+  <si>
     <t>1. Go to main Navigation menu.                                      2. Scroll down and select categories  
 3. Click a random categoery
 4. Click a sub categoery 
@@ -524,7 +488,7 @@
     <t xml:space="preserve">Should be able to filter the selected sub cateogery </t>
   </si>
   <si>
-    <t xml:space="preserve">Should be able to sort list </t>
+    <t xml:space="preserve">Should be able to sort the selected sub cateogery </t>
   </si>
   <si>
     <t xml:space="preserve">1. Go to main Navigation menu.                                      2. Scroll down and select categories  
@@ -543,6 +507,307 @@
   </si>
   <si>
     <t>InValid Username: xxxxxxx                   InValid PW: xxxxxxx</t>
+  </si>
+  <si>
+    <t>TS_EB_008</t>
+  </si>
+  <si>
+    <t>TC_Item_009</t>
+  </si>
+  <si>
+    <t>Add single item to the cart</t>
+  </si>
+  <si>
+    <t>Add multiple items to the cart</t>
+  </si>
+  <si>
+    <t>Android 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galaxy Note 3 </t>
+  </si>
+  <si>
+    <t>Peter Rabbit book</t>
+  </si>
+  <si>
+    <t>1.Go to search Bar              2.Enter valid data                 3. Click first search result from the search list</t>
+  </si>
+  <si>
+    <t>Load search results of Peter rabbit book</t>
+  </si>
+  <si>
+    <t>Load search results and display item count and list of search results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed In Account
+Searched an item
+</t>
+  </si>
+  <si>
+    <t>Display all the recent results in a list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display all saved items in the saved list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display all the saved results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to main Navigation menu.                                 
+2. Click Home and then click search bar                 
+ 3. Click saved button         4. Display saved list                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed In Account
+Saved an item
+</t>
+  </si>
+  <si>
+    <t>Raspberri Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display cart icon with added new item by an integer </t>
+  </si>
+  <si>
+    <t> Verify that both the products should be shown in the cart and in the cart icon, 2 should be displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display cart icon with added 2 new items by an integer </t>
+  </si>
+  <si>
+    <t>Verify that product should be successfully added to cart and in the Cart icon, 1 should be displayed.</t>
+  </si>
+  <si>
+    <t>1.Go to search Bar              2.Enter valid data                 3. Click first search result from the search list
+4. Select Add to Cart buuton</t>
+  </si>
+  <si>
+    <t>1.Go to search Bar              2.Enter valid data                 3. Click first search result from the search list
+4. Select Add to Cart button for the First item
+5. Select Add to Cart button for the Second item</t>
+  </si>
+  <si>
+    <t>Google Home</t>
+  </si>
+  <si>
+    <t>Display Item description: About this item, Shipping, Return and Payment info, About this seller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select an Item </t>
+  </si>
+  <si>
+    <t>Click item Discription</t>
+  </si>
+  <si>
+    <t>Should be able to click item discription</t>
+  </si>
+  <si>
+    <t>Display all Item info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click and Slide images item and view in gallery </t>
+  </si>
+  <si>
+    <t>Should be able to click an item image and slide images back and forth, view item in gallery button should be clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be able to Zoom in and Zoom out images </t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of methods to share an item should be listed and should be succesfully shared </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Should be able to share an  item by clickinh a choosen method list </t>
+  </si>
+  <si>
+    <t>Able to click seller's other items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should navigate to seller's other items </t>
+  </si>
+  <si>
+    <t>1. Select an item
+2. Scroll down   to about the seller   
+3. Save the seller by clicking heart shaped symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click seller's Profile </t>
+  </si>
+  <si>
+    <t>TC_Item_010</t>
+  </si>
+  <si>
+    <t>1. Select an item
+2. Scroll down   to about the seller   
+3. Click About the seller tab</t>
+  </si>
+  <si>
+    <t>1. Select an item
+2. Scroll down   to about the seller   
+3. Click seller's other items text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heard shaped should be filtered when you tap heart icon </t>
+  </si>
+  <si>
+    <t>Click cart icon</t>
+  </si>
+  <si>
+    <t>Click &amp; view the item in cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp; view the item in saved list </t>
+  </si>
+  <si>
+    <t>1. Click cart icon 
+2. Click Saved tab</t>
+  </si>
+  <si>
+    <t>Display list of items in the save tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seller should be succesfully save  </t>
+  </si>
+  <si>
+    <t>In cart tab should be clickable and display the list</t>
+  </si>
+  <si>
+    <t>Saved tab should be clickable and display the list</t>
+  </si>
+  <si>
+    <t>Display a message "Are you sure you want to remove…"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click cart icon 
+2. Click remove tab of an item 
+3. Click Remove
+</t>
+  </si>
+  <si>
+    <t>Verify that the Product should be removed from the cart and Cart list icon should  show no integer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click cart icon
+2. Click and add quantity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Able to click and add quantity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit quantity in the cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click cart icon
+2. Click saved for later </t>
+  </si>
+  <si>
+    <t>Verify it moves to the saved list in the cart tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removes the item from the In cart list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select an item 
+2. Click Watch Tab 
+3. Click UnWatch Tab to remove the item </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Watch item it clickable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click Navigation Menu
+2.Click Watching tab
+</t>
+  </si>
+  <si>
+    <t>Navigate to watching list page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Watching tab clickable and page is scrollable </t>
+  </si>
+  <si>
+    <t>Navigate to Active and Ended page</t>
+  </si>
+  <si>
+    <t>Verify Edit and Delete buttons are clickable
+Verify select item by ticking checking box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Able to delete an item from the list and removes from the list </t>
+  </si>
+  <si>
+    <t>1.Click Navigation Menu
+2.Click Watching tab
+3. Click Edit and Select item 
+4.Click delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click cart icon
+2. Click Checkout tab
+3.Click quantity box
+4.Change the quantity </t>
+  </si>
+  <si>
+    <t>Message the seller</t>
+  </si>
+  <si>
+    <t>TC_Item_011</t>
+  </si>
+  <si>
+    <t>1. Click cart icon
+2. Click Checkout tab
+3.Click Ship to tab
+4.Click Add a new address tab
+5. Add the address in the text field and click back arrow or Done tab</t>
+  </si>
+  <si>
+    <t>1. Click cart icon
+2. Click Checkout tab
+3.Click Ship to tab
+4.Click more information in horizontal dots
+5. Change the address in the text field and click backa arrow or Done tab</t>
+  </si>
+  <si>
+    <t>Edit quantity Cart Boundry Vaue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.  Select any product whose inventry count is less then 5 (to be validated at backend)
+2. Select Add to Cart icon for the Product.
+3. Try Editing the quantity of the product in cart with a 5 and try checkout.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that if the items quantitiy count is greater then its actual inventry count then chekout should not allowed and an appropriate error should be presented to the user for the same.</t>
+  </si>
+  <si>
+    <t>Checkout with no Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select an item 
+2. Add to cart
+</t>
+  </si>
+  <si>
+    <t>Navigate to Sign in Page</t>
+  </si>
+  <si>
+    <t>User should not be able to purchase unless with a verified ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout with registered account </t>
+  </si>
+  <si>
+    <t>1. Launch the test app. Sign in.
+2. Select any item to purchase.
+3. Checkout.</t>
+  </si>
+  <si>
+    <t>1. Verify that the test app should be successfully launched and Hello, Username should be shown in the top of the app.
+2. Verify that the correct PDP page with all the payment methods should be shown to the user.
+3. Verify that user should successful checkout the product.</t>
   </si>
 </sst>
 </file>
@@ -577,7 +842,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +858,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,15 +937,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -640,16 +950,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -662,6 +965,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,16 +1314,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412C47E9-5D3E-434B-B5FD-81AAF8596A6D}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="66" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
@@ -996,68 +1334,67 @@
     <col min="9" max="9" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="6.83203125" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
-        <v>43291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="21">
-      <c r="E7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+      <c r="B4" s="8">
+        <v>43261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21">
+      <c r="E7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="39" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1067,13 +1404,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
@@ -1087,599 +1424,695 @@
       <c r="K8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="48">
-      <c r="A9" s="10" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="48">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="96">
+      <c r="A10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="96">
-      <c r="A10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="96">
+      <c r="A11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="96">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="192">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="192">
+      <c r="A12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="192">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="192">
+      <c r="A13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="64">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>141</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="64">
+      <c r="A14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="96">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="96">
+      <c r="A15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="144">
-      <c r="A16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="8"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="144">
+      <c r="A16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" ht="144">
-      <c r="A17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="144">
+      <c r="A17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" ht="192">
-      <c r="A18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="192">
+      <c r="A18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" ht="64">
-      <c r="A19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>112</v>
+    </row>
+    <row r="19" spans="1:12" ht="80">
+      <c r="A19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" ht="96">
-      <c r="A20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="3"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="96">
+      <c r="A20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="96">
+      <c r="A21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>113</v>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="112">
+      <c r="A22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="3"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="144">
+      <c r="A23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="80">
+      <c r="A24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="7"/>
-      <c r="B25" s="3"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="32">
+      <c r="A25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="3"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="96">
+      <c r="A26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" ht="32">
-      <c r="A27" s="7"/>
-      <c r="B27" s="3"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="48">
+      <c r="A27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>124</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="3"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" ht="80">
+      <c r="A28" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="3"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="80">
+      <c r="A29" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" ht="32">
-      <c r="A30" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" ht="80">
+      <c r="A30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" ht="32">
-      <c r="A31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="3"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" ht="96">
+      <c r="A31" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" ht="32">
-      <c r="A32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="3"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1688,537 +2121,667 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="3"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" ht="48">
+      <c r="A33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="C33" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>197</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="3"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" ht="48">
+      <c r="A34" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="C34" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="7" t="s">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" ht="93" customHeight="1">
+      <c r="A35" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" ht="32">
-      <c r="A36" s="7" t="s">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" ht="32">
+      <c r="A36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>209</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" ht="32">
-      <c r="A37" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" ht="192">
+      <c r="A37" s="15"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="3"/>
+        <v>228</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" ht="32">
-      <c r="A38" s="7" t="s">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" ht="48">
+      <c r="A38" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>89</v>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="64">
+      <c r="A39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="3"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" ht="48">
+      <c r="A40" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="3"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="48">
+      <c r="A41" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="C41" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="3"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="96">
+      <c r="A42" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="C42" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="3"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="64">
+      <c r="A43" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>222</v>
+      </c>
       <c r="C43" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="9" t="s">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="128">
+      <c r="A44" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" ht="128">
+      <c r="A45" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" ht="288">
+      <c r="A46" s="15"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" ht="64">
+      <c r="A47" s="15"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="14" t="s">
+      <c r="D47" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="14" t="s">
+      <c r="D48" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" ht="32">
-      <c r="A51" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" s="14" t="s">
+      <c r="D51" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="14"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="14"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="14"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="14"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="14"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="14"/>
+      <c r="D52" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="25"/>
+      <c r="C54" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" ht="32">
+      <c r="A55" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="25"/>
+      <c r="C56" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="25"/>
+      <c r="C57" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="16"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="14"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="16"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="16"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="16"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="16"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="16"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
